--- a/media_ratings.xlsx
+++ b/media_ratings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamal Qamar\Desktop\Pyton Projects\channel_ml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E19E202B-471E-417E-B67C-F15F6D202E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8D176B-AE3F-420F-AF6B-BD0346F14DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8147C06A-1DF3-4017-988E-EF5B97E90055}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="496">
   <si>
     <t>Dramas</t>
   </si>
@@ -289,9 +289,6 @@
     <t>Meesam Naqvi</t>
   </si>
   <si>
-    <t>Fatima Effendi, Fahad Shaikh, Mohammad Ahmed</t>
-  </si>
-  <si>
     <t>Bharaas</t>
   </si>
   <si>
@@ -301,9 +298,6 @@
     <t>Nain Maniar</t>
   </si>
   <si>
-    <t>Omer Shahzad, Dur-e-Fishan, Zubab Rana</t>
-  </si>
-  <si>
     <t>Bikhray Moti</t>
   </si>
   <si>
@@ -488,9 +482,6 @@
   </si>
   <si>
     <t>Amar Ahsan Khan</t>
-  </si>
-  <si>
-    <t>Imran Ashraf, Amar Khan, Usman Peerzada, Kashif Mehmoo</t>
   </si>
   <si>
     <t>Heer is a young and confident girl, who has become a TikTok star with a large following on social media. Hero, on the other hand, is a charismatic and confident man, but with a softer side that he keeps hidden.</t>
@@ -603,19 +594,12 @@
     <t>Kala Doriya</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Sana Javed, Osman Khalid Butt, Nadia Afgan, Zainab Qayyum</t>
-  </si>
-  <si>
     <t>Kaala Doriya revolves around the lives of Mahnoor and Asfand. There is no love between their families, and they are constantly fighting. They are students at the same college and have a habit of teasing each other. Asfand and Mahnoor’s fight turned out to be an interesting bond that they developed between them. In the end, they eventually fall in love with each other. However, this news is shocking for their families since they cannot even comprehend the magnitude of this news. The love story angle is sure to capture everyone’s attention.</t>
   </si>
   <si>
     <t>Kasa-e-Dil</t>
   </si>
   <si>
-    <t>Hina Altaf, Affan Waheed, Komal Aziz Khan, Sukaina Khan</t>
-  </si>
-  <si>
     <t>Khuda Aur Mohbbat Season 3</t>
   </si>
   <si>
@@ -634,9 +618,6 @@
     <t xml:space="preserve">Angeline Malik </t>
   </si>
   <si>
-    <t>Sajjal Ali,Imran Abbas, Danish Taimour, Ayeza Khan</t>
-  </si>
-  <si>
     <t>HUM TV Dramas are well-known for its quality in Pakistani Drama &amp; Entertainment production. Kitni Girhen Baki Hain is a Pakistani anthology television series by HUM TV, that addresses important social issues faced by women, through a collection of short stories.</t>
   </si>
   <si>
@@ -647,9 +628,6 @@
   </si>
   <si>
     <t>Nadeem Baig</t>
-  </si>
-  <si>
-    <t>Asma Abbas, Mohammad Ahmad, Vaneeza Ahmad, Babar Ali</t>
   </si>
   <si>
     <t>The highly anticipated drama serial, Kuch Ankahi is a modern-day and light-hearted drama that is full of messages. The drama discusses issues relating to women’s legal and religious right to property, workplace harassment, pressurizing girls for marriage, body shaming, and many more problems prevalent in Pakistani society, wrapped in humor and wit.
@@ -662,9 +640,6 @@
     <t>Khizer Idrees</t>
   </si>
   <si>
-    <t>Ayeza Khan, Sarah Khan, Ali Rehman Khan, Gohar Rasheed,</t>
-  </si>
-  <si>
     <t>HUM TV’s drama serial Laapata is an Incomplete love story and the grief that trails it. It discusses a serious topic of getting into bad habits and repercussions that follow with a cross tang of comic relief.</t>
   </si>
   <si>
@@ -784,9 +759,6 @@
     <t>samra Bukhari</t>
   </si>
   <si>
-    <t>Muneeb Butt, Madiha Imam, Saboor Aly</t>
-  </si>
-  <si>
     <t>Mujhe Khuda Pe Yaqeen Hai</t>
   </si>
   <si>
@@ -858,9 +830,6 @@
   </si>
   <si>
     <t>Shahzad Kashmiri</t>
-  </si>
-  <si>
-    <t>Ahmed Ali Akbar, Yumna Zaidi, Ushna Shah, Mashal Khan, Urwa Hocane, Nauman Ijaz, Saboor Aly</t>
   </si>
   <si>
     <t>Pehli Si Muhabbat</t>
@@ -958,9 +927,6 @@
     <t>Saife Hassan</t>
   </si>
   <si>
-    <t>Atif Aslam, Sania Saeed, Nauman Ijaz, Samiya Mumtaz, Hania Amir, Kubra Khan, Zaviyar Nauman Ijaz and Omair Rana in pivotal roles.</t>
-  </si>
-  <si>
     <t>A transcendent tale of love and retribution.
 Sang-e-Mah follows the story of a family who belong to the tribal regions of Pakistan. The drama will reveal how people have to sacrifice their lives and love because of an untruthful tradition.[5]</t>
   </si>
@@ -968,9 +934,6 @@
     <t>Sar-e-Rah</t>
   </si>
   <si>
-    <t>Saba Qamar, Saboor Aly, Hareem Farooq, Sunita Marshall, Muneeb Butt</t>
-  </si>
-  <si>
     <t>Sinf-E-Ahan</t>
   </si>
   <si>
@@ -1052,16 +1015,10 @@
     <t>Shaqielle Ahmed</t>
   </si>
   <si>
-    <t>Kinza Hashmi, Adeel Chaudry, Aijaz Aslam, Farhan Malhi</t>
-  </si>
-  <si>
     <t>Wafa Be Mol</t>
   </si>
   <si>
     <t>Meer Sikandar</t>
-  </si>
-  <si>
-    <t>Ali Abbas, Komal Meer, Sukynah Khan, Arez Ahmed</t>
   </si>
   <si>
     <t>Woh Pagal Si</t>
@@ -1169,16 +1126,10 @@
     <t>Mein</t>
   </si>
   <si>
-    <t>Ayeza Khan, Wahaj Ali, Azeekah Daniel, Usman Peerzada</t>
-  </si>
-  <si>
     <t>Jaisay Aapki Marzi</t>
   </si>
   <si>
     <t>Saba Hamid</t>
-  </si>
-  <si>
-    <t>Dur e Fishan, Javed Sheikh, Juggan Kazim, Mikaal Zulfiqar</t>
   </si>
   <si>
     <t>Jaisay Apki Marzi is an incredible story that portrays how a person can change their behavior when they come under the pressure of a judgmental society.
@@ -1381,16 +1332,10 @@
     <t>Khaie</t>
   </si>
   <si>
-    <t>Faysal Quraishi, Durefishan Saleem, Khalid Butt, Noor Ul Hassan</t>
-  </si>
-  <si>
     <t xml:space="preserve">The story is a revenge saga that unfolds against the backdrop of the ancient tradition of Khaie, where the male members of an enemy's family are eliminated to stop the continuation of their lineage.  At the center of this age-old vendetta are Darwesh Khan, Duraab Khan, and his son Channar Khan, with Zamdaa, the daughter of Darwesh, bearing the heaviest consequences. </t>
   </si>
   <si>
     <t>Ehsaan Faramosh</t>
-  </si>
-  <si>
-    <t>Momina Iqbal, Humayun Ashraf, Mashal Khan</t>
   </si>
   <si>
     <t>Momina Iqbal as Falak, is Kabeer’s wife. She is a self-centered girl, who is raised by her father’s boss. She wants everything to go her way, even if it hurts people around her.
@@ -1403,9 +1348,6 @@
     <t>Jari Khushnood</t>
   </si>
   <si>
-    <t>Fatima Effendi, Saad Qureshi, Shazeal Shouka</t>
-  </si>
-  <si>
     <t>Sometimes when you don’t get what you want, jealousy and revenge take over your entire personality and destroy lives around you. Adawat has a similar story.</t>
   </si>
   <si>
@@ -1415,15 +1357,9 @@
     <t>Ahmed Kamran</t>
   </si>
   <si>
-    <t>Danish Taimoor, Komal Meer, Maira Khan</t>
-  </si>
-  <si>
     <t>Nijaat</t>
   </si>
   <si>
-    <t>Hina Altaf, Junaid Khan, Hajra Yamin</t>
-  </si>
-  <si>
     <t>Zulm</t>
   </si>
   <si>
@@ -1472,9 +1408,6 @@
     <t>Jaan Nisar</t>
   </si>
   <si>
-    <t>Danish Taimoor, Hiba Bukhari, Haroon Shahid</t>
-  </si>
-  <si>
     <t>Zard Patton Ka Bunn</t>
   </si>
   <si>
@@ -1484,9 +1417,6 @@
     <t>Aik Chubhan Si</t>
   </si>
   <si>
-    <t>Sami Khan, Abbas, Javed Shaikh, Hira Khan</t>
-  </si>
-  <si>
     <t>Noor Jahan</t>
   </si>
   <si>
@@ -1502,9 +1432,6 @@
     <t>Shah Hussain</t>
   </si>
   <si>
-    <t>Saba Faisal, Humayun Ashraf, Syed Muhammad Ahmed</t>
-  </si>
-  <si>
     <t>As Shahnawaz conspire schemes and exerts dominance to keep his devised reign, the lives of Maham and others get rolled over beneath the calamity. Will Maham and family ever be able to break free from his charge?</t>
   </si>
   <si>
@@ -1541,9 +1468,6 @@
     <t>salman Sirhindi</t>
   </si>
   <si>
-    <t>Momina Iqbal, Danial Afzal, Omer Shehzad</t>
-  </si>
-  <si>
     <t>Hasrat</t>
   </si>
   <si>
@@ -1551,6 +1475,78 @@
   </si>
   <si>
     <t>Kiran Haq, Fahad Shaikh, Janice Tessa</t>
+  </si>
+  <si>
+    <t>Fatima Effendi, Fahad Shaikh,Mohammad Ahmed</t>
+  </si>
+  <si>
+    <t>Omer Shahzad, Dur-e-Fishan Saleem, Zubab Rana</t>
+  </si>
+  <si>
+    <t>Imran Ashraf, Amar Khan, Usman Pirzada, Kashif Mehmood</t>
+  </si>
+  <si>
+    <t>Hina Altaf, Affan Waheed, Komal Aziz Khan,Sukaina Khan</t>
+  </si>
+  <si>
+    <t>Sajjal Ali,Imran Abbas, Danish Taimoor, Ayeza Khan</t>
+  </si>
+  <si>
+    <t>Asma Abbas,Mohammad Ahmed, Vaneeza Ahmad, Babar Ali</t>
+  </si>
+  <si>
+    <t>Ayeza Khan, Sarah Khan, Ali Rehman Khan, Gohar Rasheed</t>
+  </si>
+  <si>
+    <t>Muneeb Butt, Madiha Imam, Saboor Ali</t>
+  </si>
+  <si>
+    <t>Ahmed Ali Akbar, Yumna Zaidi, Ushna Shah, Mashal Khan, Urwa Hocane, Nauman Ijaz, Saboor Ali</t>
+  </si>
+  <si>
+    <t>Atif Aslam, Sania Saeed, Nauman Ijaz, Samiya Mumtaz, Hania Aamir, Kubra Khan, Zaviyar, Nauman Ijaz, Omair Rana</t>
+  </si>
+  <si>
+    <t>Saba Qamar, Saboor Ali, Hareem Farooq, Sunita Marshall, Muneeb Butt</t>
+  </si>
+  <si>
+    <t>Kinza Hashmi,Adeel Chaudhry, Aijaz Aslam, Farhan Malhi</t>
+  </si>
+  <si>
+    <t>Ali Abbas, Komal Meer,Sukaina Khan, Arez Ahmed</t>
+  </si>
+  <si>
+    <t>Ayeza Khan, Wahaj Ali, Azeekah Daniel, Usman Pirzada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dur-e-Fishan Saleem, Javed Sheikh, Juggan Kazim, Mikaal Zulfiqar</t>
+  </si>
+  <si>
+    <t>Faysal Quraishi, Dur-e-Fishan Saleem, Khalid Butt, Noor Ul Hassan</t>
+  </si>
+  <si>
+    <t>Momina Iqbal, Humayoun Ashraf, Mashal Khan</t>
+  </si>
+  <si>
+    <t>Fatima Effendi, Saad Qureshi, Shazeal Shoukat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Danish Taimoor, Komal Meer, Maira Khan</t>
+  </si>
+  <si>
+    <t>Hina Altaf, Junaid Khan, Hajra Yameen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Danish Taimoor, Hiba Bukhari, Haroon Shahid</t>
+  </si>
+  <si>
+    <t>Sami Khan, Abbas, Javed Sheikh, Hira Khan</t>
+  </si>
+  <si>
+    <t>Saba Faisal, Humayoun Ashraf, Syed Muhammad Ahmed</t>
+  </si>
+  <si>
+    <t>Momina Iqbal, Danial Afzal, Omer Shahzad</t>
   </si>
 </sst>
 </file>
@@ -1762,7 +1758,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1782,12 +1778,6 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1800,9 +1790,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2197,13 +2184,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2214,6 +2194,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2294,6 +2281,7 @@
       <sheetName val="GRPs"/>
       <sheetName val="Rating"/>
       <sheetName val="Revenue"/>
+      <sheetName val="Month Wise Top Drmas data"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -9525,13 +9513,14 @@
       <sheetData sheetId="12" refreshError="1"/>
       <sheetData sheetId="13" refreshError="1"/>
       <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{660D62A1-85ED-469B-BE5D-19E47ADDB8F0}" name="Table2" displayName="Table2" ref="A1:I150" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{660D62A1-85ED-469B-BE5D-19E47ADDB8F0}" name="Table2" displayName="Table2" ref="A1:I150" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="A1:I150" xr:uid="{510AE88E-6D6D-41B7-BEF7-0B72C3313B5E}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{720E3791-3D07-4BE1-B09D-6AC2D80ED6A3}" name="Dramas" dataDxfId="8"/>
@@ -9850,10 +9839,10 @@
   <dimension ref="A1:I150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="G134" sqref="G134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9951,7 +9940,7 @@
       <c r="F3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="8">
@@ -10047,7 +10036,7 @@
       <c r="F6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="8">
@@ -10145,7 +10134,7 @@
       <c r="F9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="6" t="s">
         <v>46</v>
       </c>
       <c r="H9" s="8">
@@ -10435,7 +10424,7 @@
         <v>81</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>82</v>
+        <v>472</v>
       </c>
       <c r="H18" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A18)</f>
@@ -10448,7 +10437,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" s="6" t="str">
         <f>VLOOKUP(A19,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -10461,13 +10450,13 @@
         <v>11</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="G19" s="6" t="s">
-        <v>86</v>
+        <v>473</v>
       </c>
       <c r="H19" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A19)</f>
@@ -10481,7 +10470,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B20" s="6" t="str">
         <f>VLOOKUP(A20,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -10494,13 +10483,13 @@
         <v>11</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H20" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A20)</f>
@@ -10514,7 +10503,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B21" s="6" t="str">
         <f>VLOOKUP(A21,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -10527,13 +10516,13 @@
         <v>32</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>34</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H21" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A21)</f>
@@ -10546,7 +10535,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B22" s="6" t="str">
         <f>VLOOKUP(A22,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -10559,13 +10548,13 @@
         <v>49</v>
       </c>
       <c r="E22" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>95</v>
       </c>
       <c r="H22" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A22)</f>
@@ -10578,7 +10567,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B23" s="6" t="str">
         <f>VLOOKUP(A23,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -10594,10 +10583,10 @@
         <v>44</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="H23" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A23)</f>
@@ -10610,7 +10599,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B24" s="6" t="str">
         <f>VLOOKUP(A24,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -10623,13 +10612,13 @@
         <v>32</v>
       </c>
       <c r="E24" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="H24" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A24)</f>
@@ -10642,7 +10631,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B25" s="6" t="str">
         <f>VLOOKUP(A25,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -10655,13 +10644,13 @@
         <v>32</v>
       </c>
       <c r="E25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="H25" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A25)</f>
@@ -10674,7 +10663,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B26" s="6" t="str">
         <f>VLOOKUP(A26,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -10687,25 +10676,25 @@
         <v>32</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="H26" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A26)</f>
         <v>5.1740624999999998</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B27" s="6" t="str">
         <f>VLOOKUP(A27,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -10718,13 +10707,13 @@
         <v>32</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H27" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A27)</f>
@@ -10737,7 +10726,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B28" s="6" t="str">
         <f>VLOOKUP(A28,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -10750,13 +10739,13 @@
         <v>32</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H28" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A28)</f>
@@ -10768,8 +10757,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>118</v>
+      <c r="A29" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="B29" s="6" t="str">
         <f>VLOOKUP(A29,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -10782,13 +10771,13 @@
         <v>49</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H29" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A29)</f>
@@ -10801,7 +10790,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B30" s="6" t="str">
         <f>VLOOKUP(A30,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -10814,13 +10803,13 @@
         <v>32</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>34</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H30" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A30)</f>
@@ -10833,7 +10822,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B31" s="6" t="str">
         <f>VLOOKUP(A31,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -10846,13 +10835,13 @@
         <v>32</v>
       </c>
       <c r="E31" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="H31" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A31)</f>
@@ -10865,7 +10854,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B32" s="6" t="str">
         <f>VLOOKUP(A32,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -10878,13 +10867,13 @@
         <v>32</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H32" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A32)</f>
@@ -10897,7 +10886,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B33" s="6" t="str">
         <f>VLOOKUP(A33,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -10910,13 +10899,13 @@
         <v>32</v>
       </c>
       <c r="E33" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="H33" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A33)</f>
@@ -10929,7 +10918,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B34" s="6" t="str">
         <f>VLOOKUP(A34,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -10942,13 +10931,13 @@
         <v>21</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H34" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A34)</f>
@@ -10961,7 +10950,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B35" s="6" t="str">
         <f>VLOOKUP(A35,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -10974,13 +10963,13 @@
         <v>21</v>
       </c>
       <c r="E35" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="H35" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A35)</f>
@@ -10993,7 +10982,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B36" s="6" t="str">
         <f>VLOOKUP(A36,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11006,13 +10995,13 @@
         <v>32</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H36" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A36)</f>
@@ -11025,7 +11014,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B37" s="6" t="str">
         <f>VLOOKUP(A37,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11038,13 +11027,13 @@
         <v>11</v>
       </c>
       <c r="E37" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="H37" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A37)</f>
@@ -11055,9 +11044,9 @@
         <v>Involves a loving couple attempting to overcome misconceptions brought on by tragic events and those around them.</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B38" s="6" t="str">
         <f>VLOOKUP(A38,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11070,25 +11059,25 @@
         <v>32</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>149</v>
+        <v>107</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>474</v>
       </c>
       <c r="H38" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A38)</f>
         <v>5.8574999999999999</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B39" s="6" t="str">
         <f>VLOOKUP(A39,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11101,13 +11090,13 @@
         <v>49</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H39" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A39)</f>
@@ -11120,7 +11109,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B40" s="6" t="str">
         <f>VLOOKUP(A40,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11133,25 +11122,25 @@
         <v>49</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>156</v>
+        <v>92</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="H40" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A40)</f>
         <v>4.2412142857142872</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B41" s="6" t="str">
         <f>VLOOKUP(A41,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11170,7 +11159,7 @@
         <v>28</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H41" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A41)</f>
@@ -11183,7 +11172,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B42" s="6" t="str">
         <f>VLOOKUP(A42,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11196,13 +11185,13 @@
         <v>32</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H42" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A42)</f>
@@ -11215,7 +11204,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B43" s="6" t="str">
         <f>VLOOKUP(A43,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11228,25 +11217,25 @@
         <v>49</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H43" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A43)</f>
         <v>5.1743749999999995</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B44" s="6" t="str">
         <f>VLOOKUP(A44,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11259,13 +11248,13 @@
         <v>37</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H44" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A44)</f>
@@ -11278,7 +11267,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B45" s="6" t="str">
         <f>VLOOKUP(A45,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11291,13 +11280,13 @@
         <v>37</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H45" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A45)</f>
@@ -11310,7 +11299,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B46" s="6" t="str">
         <f>VLOOKUP(A46,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11323,13 +11312,13 @@
         <v>21</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G46" s="11" t="s">
-        <v>177</v>
+      <c r="G46" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="H46" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A46)</f>
@@ -11342,7 +11331,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B47" s="6" t="str">
         <f>VLOOKUP(A47,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11355,13 +11344,13 @@
         <v>32</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H47" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A47)</f>
@@ -11374,7 +11363,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B48" s="6" t="str">
         <f>VLOOKUP(A48,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11387,13 +11376,13 @@
         <v>21</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H48" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A48)</f>
@@ -11404,9 +11393,9 @@
         <v>A son of a business tycoon, Shehreyar falls in love with Mehak, who belongs to a middle class background. Since Shehreyar's family does not approve of his relationship, some unpleasant events occur, and their story tangles even more.</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B49" s="6" t="str">
         <f>VLOOKUP(A49,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11419,25 +11408,25 @@
         <v>49</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>186</v>
+        <v>92</v>
+      </c>
+      <c r="G49" s="6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H49" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A49)</f>
         <v>5.6680624999999996</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B50" s="6" t="str">
         <f>VLOOKUP(A50,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11450,13 +11439,13 @@
         <v>32</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>189</v>
+        <v>475</v>
       </c>
       <c r="H50" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A50)</f>
@@ -11469,7 +11458,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B51" s="6" t="str">
         <f>VLOOKUP(A51,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11482,13 +11471,13 @@
         <v>32</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H51" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A51)</f>
@@ -11500,8 +11489,8 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
-        <v>193</v>
+      <c r="A52" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="B52" s="6" t="str">
         <f>VLOOKUP(A52,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11514,25 +11503,25 @@
         <v>49</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>196</v>
+        <v>190</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>476</v>
       </c>
       <c r="H52" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A52)</f>
         <v>5.3710000000000004</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B53" s="6" t="str">
         <f>VLOOKUP(A53,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11545,25 +11534,25 @@
         <v>11</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>201</v>
+        <v>477</v>
       </c>
       <c r="H53" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A53)</f>
         <v>7.2510208333333335</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B54" s="6" t="str">
         <f>VLOOKUP(A54,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11576,25 +11565,25 @@
         <v>49</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>205</v>
+        <v>478</v>
       </c>
       <c r="H54" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A54)</f>
         <v>5.5037500000000001</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B55" s="6" t="str">
         <f>VLOOKUP(A55,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11607,25 +11596,25 @@
         <v>21</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G55" s="11" t="s">
-        <v>209</v>
+      <c r="G55" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="H55" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A55)</f>
         <v>5.3025000000000002</v>
       </c>
-      <c r="I55" s="15" t="s">
-        <v>210</v>
+      <c r="I55" s="13" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B56" s="6" t="str">
         <f>VLOOKUP(A56,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11638,13 +11627,13 @@
         <v>32</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="H56" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A56)</f>
@@ -11657,7 +11646,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B57" s="6" t="str">
         <f>VLOOKUP(A57,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11670,25 +11659,25 @@
         <v>37</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>216</v>
+        <v>207</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="H57" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A57)</f>
         <v>7.1997777777777783</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B58" s="6" t="str">
         <f>VLOOKUP(A58,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11704,10 +11693,10 @@
         <v>44</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H58" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A58)</f>
@@ -11720,7 +11709,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B59" s="6" t="str">
         <f>VLOOKUP(A59,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11733,13 +11722,13 @@
         <v>11</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>223</v>
+        <v>214</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="H59" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A59)</f>
@@ -11752,7 +11741,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B60" s="6" t="str">
         <f>VLOOKUP(A60,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11765,13 +11754,13 @@
         <v>32</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>54</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H60" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A60)</f>
@@ -11784,7 +11773,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B61" s="6" t="str">
         <f>VLOOKUP(A61,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11797,13 +11786,13 @@
         <v>37</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="H61" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A61)</f>
@@ -11816,7 +11805,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B62" s="6" t="str">
         <f>VLOOKUP(A62,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11829,13 +11818,13 @@
         <v>11</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H62" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A62)</f>
@@ -11848,7 +11837,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B63" s="6" t="str">
         <f>VLOOKUP(A63,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11861,13 +11850,13 @@
         <v>32</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H63" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A63)</f>
@@ -11880,7 +11869,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B64" s="6" t="str">
         <f>VLOOKUP(A64,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11893,13 +11882,13 @@
         <v>32</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H64" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A64)</f>
@@ -11912,7 +11901,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B65" s="6" t="str">
         <f>VLOOKUP(A65,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11925,25 +11914,25 @@
         <v>49</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="H65" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A65)</f>
         <v>5.4879499999999997</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B66" s="6" t="str">
         <f>VLOOKUP(A66,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11956,13 +11945,13 @@
         <v>21</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>245</v>
+        <v>479</v>
       </c>
       <c r="H66" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A66)</f>
@@ -11975,7 +11964,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B67" s="6" t="str">
         <f>VLOOKUP(A67,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -11988,13 +11977,13 @@
         <v>32</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H67" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A67)</f>
@@ -12007,7 +11996,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B68" s="6" t="str">
         <f>VLOOKUP(A68,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12020,13 +12009,13 @@
         <v>37</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>249</v>
+        <v>167</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="H68" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A68)</f>
@@ -12039,7 +12028,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B69" s="6" t="str">
         <f>VLOOKUP(A69,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12052,13 +12041,13 @@
         <v>32</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="H69" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A69)</f>
@@ -12071,7 +12060,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B70" s="6" t="str">
         <f>VLOOKUP(A70,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12084,13 +12073,13 @@
         <v>21</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G70" s="11" t="s">
-        <v>254</v>
+      <c r="G70" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="H70" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A70)</f>
@@ -12103,7 +12092,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B71" s="6" t="str">
         <f>VLOOKUP(A71,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12116,13 +12105,13 @@
         <v>32</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="H71" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A71)</f>
@@ -12135,7 +12124,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B72" s="6" t="str">
         <f>VLOOKUP(A72,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12148,13 +12137,13 @@
         <v>37</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>262</v>
+        <v>252</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>253</v>
       </c>
       <c r="H72" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A72)</f>
@@ -12167,7 +12156,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B73" s="6" t="str">
         <f>VLOOKUP(A73,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12180,13 +12169,13 @@
         <v>11</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>264</v>
+        <v>224</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>255</v>
       </c>
       <c r="H73" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A73)</f>
@@ -12197,9 +12186,9 @@
         <v>The story revolves around a married couple, Aman and Sumbul who are trying to make up lost time and love. Life keeps becoming difficult for Sumbul after a stillborn birth, an empty marriage, black magic by a broken mother-in-law, and a mute daughter named Minaal. After moving into a new house the family starts to experience certain paranormal activities. Sumbul hires a maid for housework and even the maid experiences the paranormal happenings. Aman refuses to believe in supernatural forces which leaves Sumbul into dealing with her issues on her own. The broken family tries to get closer to each other but grow further apart due to Neeli and her actions.[</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B74" s="6" t="str">
         <f>VLOOKUP(A74,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12212,25 +12201,25 @@
         <v>11</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F74" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G74" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>266</v>
       </c>
       <c r="H74" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A74)</f>
         <v>6.0780750000000001</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B75" s="6" t="str">
         <f>VLOOKUP(A75,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12243,13 +12232,13 @@
         <v>49</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>270</v>
+        <v>260</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>480</v>
       </c>
       <c r="H75" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A75)</f>
@@ -12262,7 +12251,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B76" s="6" t="str">
         <f>VLOOKUP(A76,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12278,22 +12267,22 @@
         <v>53</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>273</v>
+        <v>262</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="H76" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A76)</f>
         <v>3.6448999999999998</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B77" s="6" t="str">
         <f>VLOOKUP(A77,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12309,10 +12298,10 @@
         <v>53</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>276</v>
+        <v>224</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>266</v>
       </c>
       <c r="H77" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A77)</f>
@@ -12325,7 +12314,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B78" s="6" t="str">
         <f>VLOOKUP(A78,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12338,13 +12327,13 @@
         <v>37</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G78" s="11" t="s">
-        <v>279</v>
+      <c r="G78" s="6" t="s">
+        <v>269</v>
       </c>
       <c r="H78" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A78)</f>
@@ -12358,7 +12347,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B79" s="6" t="str">
         <f>VLOOKUP(A79,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12371,13 +12360,13 @@
         <v>32</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="H79" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A79)</f>
@@ -12388,9 +12377,9 @@
         <v>Qalandar is a story of a girl's firm belief in her God and His decisions while the rest of the world continues to hurt, defame and challenge her. Dur-e-Adan is a young and innocent girl who...                See full summary »</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B80" s="6" t="str">
         <f>VLOOKUP(A80,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12408,20 +12397,20 @@
       <c r="F80" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G80" s="11" t="s">
-        <v>283</v>
+      <c r="G80" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="H80" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A80)</f>
         <v>4.7063749999999995</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B81" s="6" t="str">
         <f>VLOOKUP(A81,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12434,13 +12423,13 @@
         <v>32</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>54</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="H81" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A81)</f>
@@ -12453,7 +12442,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B82" s="6" t="str">
         <f>VLOOKUP(A82,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12472,7 +12461,7 @@
         <v>45</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="H82" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A82)</f>
@@ -12485,7 +12474,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B83" s="6" t="str">
         <f>VLOOKUP(A83,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12498,13 +12487,13 @@
         <v>32</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="H83" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A83)</f>
@@ -12517,7 +12506,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B84" s="6" t="str">
         <f>VLOOKUP(A84,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12530,13 +12519,13 @@
         <v>49</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>295</v>
+        <v>284</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>285</v>
       </c>
       <c r="H84" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A84)</f>
@@ -12547,9 +12536,9 @@
         <v>Two brothers, Moosa and Essa, carry on their father's conservative and patriarchal rules while dealing with women in their family and control every aspect of their lives.</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B85" s="6" t="str">
         <f>VLOOKUP(A85,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12565,10 +12554,10 @@
         <v>16</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>298</v>
+        <v>287</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="H85" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A85)</f>
@@ -12581,7 +12570,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B86" s="6" t="str">
         <f>VLOOKUP(A86,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12594,25 +12583,25 @@
         <v>49</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>302</v>
+        <v>481</v>
       </c>
       <c r="H86" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A86)</f>
         <v>5.7280999999999995</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B87" s="6" t="str">
         <f>VLOOKUP(A87,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12625,13 +12614,13 @@
         <v>21</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>305</v>
+        <v>136</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>482</v>
       </c>
       <c r="H87" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A87)</f>
@@ -12643,9 +12632,9 @@
 Sar-e-Rah is an exceptionally well-written drama, which discusses the stories that are scattered all around us but unfortunately, we tend to shy away from shedding some light on them.</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B88" s="6" t="str">
         <f>VLOOKUP(A88,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12658,13 +12647,13 @@
         <v>11</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>307</v>
+        <v>194</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="H88" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A88)</f>
@@ -12677,7 +12666,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B89" s="6" t="str">
         <f>VLOOKUP(A89,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12690,13 +12679,13 @@
         <v>32</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="H89" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A89)</f>
@@ -12709,7 +12698,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B90" s="6" t="str">
         <f>VLOOKUP(A90,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12719,7 +12708,7 @@
         <v>31</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>65</v>
@@ -12727,8 +12716,8 @@
       <c r="F90" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G90" s="11" t="s">
-        <v>312</v>
+      <c r="G90" s="6" t="s">
+        <v>300</v>
       </c>
       <c r="H90" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A90)</f>
@@ -12741,7 +12730,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B91" s="6" t="str">
         <f>VLOOKUP(A91,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12754,13 +12743,13 @@
         <v>37</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>316</v>
+        <v>303</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>304</v>
       </c>
       <c r="H91" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A91)</f>
@@ -12774,7 +12763,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B92" s="6" t="str">
         <f>VLOOKUP(A92,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12787,13 +12776,13 @@
         <v>32</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="H92" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A92)</f>
@@ -12804,9 +12793,9 @@
         <v>Life takes an unexpected turn for Meerab and Murtasim,as they are bound to face each other. As they fight the battles of ego,hate and self respect with each other, will they understand their true feelings for each other ?</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B93" s="6" t="str">
         <f>VLOOKUP(A93,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12824,8 +12813,8 @@
       <c r="F93" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G93" s="11" t="s">
-        <v>321</v>
+      <c r="G93" s="6" t="s">
+        <v>309</v>
       </c>
       <c r="H93" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A93)</f>
@@ -12836,9 +12825,9 @@
         <v>Tere Bina Mein Nahi is an original story that talks about taking the right decisions at the right time and keeping yourself grounded even when you are flying high.</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B94" s="6" t="str">
         <f>VLOOKUP(A94,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12854,10 +12843,10 @@
         <v>50</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>324</v>
+        <v>311</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="H94" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A94)</f>
@@ -12871,7 +12860,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B95" s="6" t="str">
         <f>VLOOKUP(A95,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12884,25 +12873,25 @@
         <v>49</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="H95" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A95)</f>
         <v>6.4109999999999996</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="B96" s="6" t="str">
         <f>VLOOKUP(A96,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12915,13 +12904,13 @@
         <v>32</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H96" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A96)</f>
@@ -12934,7 +12923,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B97" s="6" t="str">
         <f>VLOOKUP(A97,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12947,13 +12936,13 @@
         <v>32</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>333</v>
+        <v>483</v>
       </c>
       <c r="H97" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A97)</f>
@@ -12966,7 +12955,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="B98" s="6" t="str">
         <f>VLOOKUP(A98,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -12979,13 +12968,13 @@
         <v>49</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>336</v>
+        <v>484</v>
       </c>
       <c r="H98" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A98)</f>
@@ -12996,9 +12985,9 @@
         <v>Wafa Be Mol is a family drama of 2021, that is airing on Hum Tv. The drama story is full of love, hate, and family problems. Wafa Be Mol’s story is written by Nuzhat Saman and Directed by Meer Sikandar. Wafa Be Mol drama cast consists of popular Pakistani actors and actresses. Komal Mir and Ali Abbas are playing the lead roles in this play.</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B99" s="6" t="str">
         <f>VLOOKUP(A99,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -13011,13 +13000,13 @@
         <v>11</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>339</v>
+        <v>324</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>325</v>
       </c>
       <c r="H99" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A99)</f>
@@ -13031,7 +13020,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="B100" s="6" t="str">
         <f>VLOOKUP(A100,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -13044,13 +13033,13 @@
         <v>11</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="G100" s="11" t="s">
-        <v>343</v>
+        <v>328</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="H100" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A100)</f>
@@ -13064,7 +13053,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="B101" s="6" t="str">
         <f>VLOOKUP(A101,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -13077,25 +13066,25 @@
         <v>49</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="G101" s="11" t="s">
-        <v>346</v>
+        <v>331</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>332</v>
       </c>
       <c r="H101" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A101)</f>
         <v>6.7419250000000002</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="B102" s="6" t="str">
         <f>VLOOKUP(A102,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -13108,13 +13097,13 @@
         <v>21</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="G102" s="11" t="s">
-        <v>351</v>
+        <v>336</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>337</v>
       </c>
       <c r="H102" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A102)</f>
@@ -13127,7 +13116,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="B103" s="6" t="str">
         <f>VLOOKUP(A103,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -13140,25 +13129,25 @@
         <v>32</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="H103" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A103)</f>
         <v>7.1977933035714283</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="B104" s="6" t="str">
         <f>VLOOKUP(A104,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -13171,13 +13160,13 @@
         <v>21</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>77</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="H104" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A104)</f>
@@ -13192,7 +13181,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B105" s="6" t="str">
         <f>VLOOKUP(A105,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -13205,25 +13194,25 @@
         <v>32</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>54</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="H105" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A105)</f>
         <v>8.3363611111111116</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="B106" s="6" t="str">
         <f>VLOOKUP(A106,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -13236,13 +13225,13 @@
         <v>37</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="G106" s="11" t="s">
-        <v>364</v>
+        <v>349</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>350</v>
       </c>
       <c r="H106" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A106)</f>
@@ -13254,9 +13243,9 @@
 In order to achieve peace and contentment in life, she tries to convince her husband to marry her friend. But things start to fall apart as her friend has some other plans.</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="B107" s="6" t="str">
         <f>VLOOKUP(A107,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -13269,13 +13258,13 @@
         <v>37</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G107" s="11" t="s">
-        <v>367</v>
+        <v>252</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>353</v>
       </c>
       <c r="H107" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A107)</f>
@@ -13287,9 +13276,9 @@
 Two brothers, Junaid and Asad are married to two sisters, Beena and Ruhi. This beautiful bond is threatened by the evils of their families and lousiness of Asad. Will the new relationships ruin the old sweet bond?</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B108" s="6" t="str">
         <f>VLOOKUP(A108,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -13305,10 +13294,10 @@
         <v>33</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G108" s="11" t="s">
-        <v>369</v>
+        <v>136</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>355</v>
       </c>
       <c r="H108" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A108)</f>
@@ -13321,7 +13310,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="B109" s="6" t="str">
         <f>VLOOKUP(A109,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -13334,13 +13323,13 @@
         <v>37</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="G109" s="11" t="s">
-        <v>371</v>
+        <v>167</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>485</v>
       </c>
       <c r="H109" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A109)</f>
@@ -13353,7 +13342,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="B110" s="6" t="str">
         <f>VLOOKUP(A110,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -13366,25 +13355,25 @@
         <v>11</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="G110" s="11" t="s">
-        <v>374</v>
+        <v>358</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>486</v>
       </c>
       <c r="H110" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A110)</f>
         <v>9.5433928571428588</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="B111" s="6" t="str">
         <f>VLOOKUP(A111,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -13397,13 +13386,13 @@
         <v>37</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G111" s="11" t="s">
-        <v>378</v>
+      <c r="G111" s="6" t="s">
+        <v>362</v>
       </c>
       <c r="H111" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A111)</f>
@@ -13416,7 +13405,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="B112" s="6" t="str">
         <f>VLOOKUP(A112,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -13429,25 +13418,25 @@
         <v>32</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G112" s="11" t="s">
-        <v>380</v>
+        <v>103</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>364</v>
       </c>
       <c r="H112" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A112)</f>
         <v>7.2058088235294129</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="B113" s="6" t="str">
         <f>VLOOKUP(A113,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -13460,25 +13449,25 @@
         <v>32</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G113" s="11" t="s">
-        <v>384</v>
+        <v>158</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="H113" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A113)</f>
         <v>8.0258008333333333</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="B114" s="6" t="str">
         <f>VLOOKUP(A114,[1]Sheet4!$A$1:$B$951,1,FALSE)</f>
@@ -13491,31 +13480,31 @@
         <v>49</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="G114" s="11" t="s">
-        <v>387</v>
+        <v>291</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>371</v>
       </c>
       <c r="H114" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A114)</f>
         <v>6.4699166666666663</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="B115" s="6" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Sukoon</v>
       </c>
-      <c r="C115" s="16" t="s">
+      <c r="C115" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D115" s="6" t="s">
@@ -13527,285 +13516,285 @@
       <c r="F115" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G115" s="11" t="s">
-        <v>390</v>
+      <c r="G115" s="6" t="s">
+        <v>374</v>
       </c>
       <c r="H115" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A115)</f>
         <v>8.853071527777777</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="B116" s="6" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Ishq Murshid</v>
       </c>
-      <c r="C116" s="16" t="s">
+      <c r="C116" s="14" t="s">
         <v>48</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>49</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G116" s="11" t="s">
-        <v>394</v>
+        <v>150</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>378</v>
       </c>
       <c r="H116" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A116)</f>
         <v>11.458384375</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A117" s="17" t="s">
-        <v>396</v>
+      <c r="A117" s="15" t="s">
+        <v>380</v>
       </c>
       <c r="B117" s="6" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Dil Hi Tou Hai</v>
       </c>
-      <c r="C117" s="16" t="s">
+      <c r="C117" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D117" s="18" t="s">
+      <c r="D117" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E117" s="18" t="s">
+      <c r="E117" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F117" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="G117" s="19" t="s">
-        <v>398</v>
+      <c r="F117" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>382</v>
       </c>
       <c r="H117" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A117)</f>
         <v>8.7130624999999995</v>
       </c>
-      <c r="I117" s="20" t="s">
-        <v>399</v>
+      <c r="I117" s="17" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="B118" s="6" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Burns Road Kay Romeo Juliet</v>
       </c>
-      <c r="C118" s="16" t="s">
+      <c r="C118" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G118" s="11" t="s">
-        <v>401</v>
+      <c r="G118" s="6" t="s">
+        <v>385</v>
       </c>
       <c r="H118" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A118)</f>
         <v>6.5898549107142852</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="17" t="s">
-        <v>403</v>
+      <c r="A119" s="15" t="s">
+        <v>387</v>
       </c>
       <c r="B119" s="6" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Namak Haram</v>
       </c>
-      <c r="C119" s="16" t="s">
+      <c r="C119" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D119" s="18" t="s">
+      <c r="D119" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E119" s="18" t="s">
-        <v>404</v>
-      </c>
-      <c r="F119" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="G119" s="19" t="s">
-        <v>405</v>
+      <c r="E119" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F119" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>389</v>
       </c>
       <c r="H119" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A119)</f>
         <v>6.6681944444444445</v>
       </c>
-      <c r="I119" s="21" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="17" t="s">
-        <v>407</v>
+      <c r="I119" s="18" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="15" t="s">
+        <v>391</v>
       </c>
       <c r="B120" s="6" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Ghata</v>
       </c>
-      <c r="C120" s="22" t="s">
+      <c r="C120" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D120" s="18" t="s">
+      <c r="D120" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E120" s="18" t="s">
-        <v>408</v>
+      <c r="E120" s="16" t="s">
+        <v>392</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G120" s="19" t="s">
-        <v>409</v>
+        <v>130</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="H120" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A120)</f>
         <v>7.17</v>
       </c>
-      <c r="I120" s="21" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="17" t="s">
-        <v>411</v>
+      <c r="I120" s="18" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="15" t="s">
+        <v>395</v>
       </c>
       <c r="B121" s="6" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Jannat Se Aagay</v>
       </c>
-      <c r="C121" s="22" t="s">
+      <c r="C121" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D121" s="18" t="s">
+      <c r="D121" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E121" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="F121" s="18" t="s">
-        <v>412</v>
-      </c>
-      <c r="G121" s="19" t="s">
-        <v>413</v>
+      <c r="E121" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F121" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>397</v>
       </c>
       <c r="H121" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A121)</f>
         <v>6.8535833333333329</v>
       </c>
-      <c r="I121" s="21" t="s">
-        <v>414</v>
+      <c r="I121" s="18" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="17" t="s">
-        <v>415</v>
+      <c r="A122" s="15" t="s">
+        <v>399</v>
       </c>
       <c r="B122" s="6" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Khumar</v>
       </c>
-      <c r="C122" s="22" t="s">
+      <c r="C122" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D122" s="18" t="s">
+      <c r="D122" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E122" s="18" t="s">
+      <c r="E122" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F122" s="18" t="s">
+      <c r="F122" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G122" s="19" t="s">
-        <v>416</v>
+      <c r="G122" s="6" t="s">
+        <v>400</v>
       </c>
       <c r="H122" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A122)</f>
         <v>7.3576747159090905</v>
       </c>
-      <c r="I122" s="21" t="s">
-        <v>417</v>
+      <c r="I122" s="18" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="B123" s="6" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Jaan e Jahan</v>
       </c>
-      <c r="C123" s="16" t="s">
+      <c r="C123" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D123" s="6"/>
       <c r="E123" s="6" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="G123" s="11" t="s">
-        <v>420</v>
+        <v>224</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>404</v>
       </c>
       <c r="H123" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A123)</f>
         <v>8.5776857142857139</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="B124" s="6" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Takabbur</v>
       </c>
-      <c r="C124" s="16" t="s">
+      <c r="C124" s="14" t="s">
         <v>48</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>49</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="G124" s="11" t="s">
-        <v>424</v>
+        <v>407</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>408</v>
       </c>
       <c r="H124" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A124)</f>
@@ -13815,779 +13804,779 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="B125" s="6" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Faraib</v>
       </c>
-      <c r="C125" s="16" t="s">
+      <c r="C125" s="14" t="s">
         <v>48</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>49</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="G125" s="11" t="s">
-        <v>426</v>
+        <v>303</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>410</v>
       </c>
       <c r="H125" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A125)</f>
         <v>8.5820000000000007</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A126" s="17" t="s">
-        <v>428</v>
+      <c r="A126" s="15" t="s">
+        <v>412</v>
       </c>
       <c r="B126" s="6" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Baylagaam</v>
       </c>
-      <c r="C126" s="23" t="s">
+      <c r="C126" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D126" s="18" t="s">
+      <c r="D126" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E126" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F126" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="G126" s="19" t="s">
-        <v>429</v>
+      <c r="E126" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F126" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>413</v>
       </c>
       <c r="H126" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A126)</f>
         <v>7.67043469551282</v>
       </c>
-      <c r="I126" s="24" t="s">
-        <v>430</v>
+      <c r="I126" s="21" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="17" t="s">
-        <v>431</v>
+      <c r="A127" s="15" t="s">
+        <v>415</v>
       </c>
       <c r="B127" s="6" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Teray Anay Say</v>
       </c>
-      <c r="C127" s="23" t="s">
+      <c r="C127" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D127" s="18" t="s">
+      <c r="D127" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E127" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="F127" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G127" s="19" t="s">
-        <v>432</v>
+      <c r="E127" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="F127" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>416</v>
       </c>
       <c r="H127" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A127)</f>
         <v>7.0580951730418953</v>
       </c>
-      <c r="I127" s="21"/>
+      <c r="I127" s="18"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="B128" s="6" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Mere Hi Rahna</v>
       </c>
-      <c r="C128" s="16" t="s">
+      <c r="C128" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G128" s="11" t="s">
-        <v>434</v>
+        <v>252</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>418</v>
       </c>
       <c r="H128" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A128)</f>
         <v>6.4425750000000006</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="17" t="s">
-        <v>436</v>
+      <c r="A129" s="15" t="s">
+        <v>420</v>
       </c>
       <c r="B129" s="6" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v xml:space="preserve">Mere Humnasheen </v>
       </c>
-      <c r="C129" s="22" t="s">
+      <c r="C129" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D129" s="18" t="s">
+      <c r="D129" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E129" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="F129" s="18" t="s">
+      <c r="E129" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="F129" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G129" s="19" t="s">
-        <v>437</v>
+      <c r="G129" s="6" t="s">
+        <v>421</v>
       </c>
       <c r="H129" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A129)</f>
         <v>6.4441874999999991</v>
       </c>
-      <c r="I129" s="21" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="17" t="s">
-        <v>439</v>
+      <c r="I129" s="18" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="15" t="s">
+        <v>423</v>
       </c>
       <c r="B130" s="6" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Khaie</v>
       </c>
-      <c r="C130" s="22" t="s">
+      <c r="C130" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D130" s="18" t="s">
+      <c r="D130" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E130" s="18" t="s">
-        <v>404</v>
-      </c>
-      <c r="F130" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="G130" s="19" t="s">
-        <v>440</v>
+      <c r="E130" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F130" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>487</v>
       </c>
       <c r="H130" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A130)</f>
         <v>10.696238095238094</v>
       </c>
-      <c r="I130" s="21" t="s">
-        <v>441</v>
+      <c r="I130" s="18" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A131" s="17" t="s">
-        <v>442</v>
+      <c r="A131" s="15" t="s">
+        <v>425</v>
       </c>
       <c r="B131" s="6" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Ehsaan Faramosh</v>
       </c>
-      <c r="C131" s="16" t="s">
+      <c r="C131" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D131" s="18" t="s">
+      <c r="D131" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E131" s="18" t="s">
+      <c r="E131" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F131" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="G131" s="19" t="s">
-        <v>443</v>
+      <c r="F131" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>488</v>
       </c>
       <c r="H131" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A131)</f>
         <v>7.7364845328282819</v>
       </c>
-      <c r="I131" s="20" t="s">
-        <v>444</v>
+      <c r="I131" s="17" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="17" t="s">
-        <v>445</v>
+      <c r="A132" s="15" t="s">
+        <v>427</v>
       </c>
       <c r="B132" s="6" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Adawat</v>
       </c>
-      <c r="C132" s="16" t="s">
+      <c r="C132" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D132" s="18" t="s">
+      <c r="D132" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E132" s="18" t="s">
+      <c r="E132" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F132" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="G132" s="19" t="s">
-        <v>447</v>
+      <c r="F132" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>489</v>
       </c>
       <c r="H132" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A132)</f>
         <v>10.776847446236559</v>
       </c>
-      <c r="I132" s="21" t="s">
-        <v>448</v>
+      <c r="I132" s="18" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="17" t="s">
-        <v>449</v>
-      </c>
-      <c r="B133" s="18" t="str">
+      <c r="A133" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="B133" s="16" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Rah-e-Junoon</v>
       </c>
-      <c r="C133" s="22" t="s">
+      <c r="C133" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D133" s="18" t="s">
+      <c r="D133" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E133" s="18" t="s">
+      <c r="E133" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F133" s="18" t="s">
-        <v>450</v>
-      </c>
-      <c r="G133" s="19" t="s">
-        <v>451</v>
+      <c r="F133" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>490</v>
       </c>
       <c r="H133" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A133)</f>
         <v>6.5094999999999992</v>
       </c>
-      <c r="I133" s="21"/>
+      <c r="I133" s="18"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="B134" s="18" t="str">
+      <c r="A134" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="B134" s="16" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Nijaat</v>
       </c>
-      <c r="C134" s="22" t="s">
+      <c r="C134" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D134" s="18" t="s">
+      <c r="D134" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E134" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F134" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="G134" s="19" t="s">
-        <v>453</v>
+      <c r="E134" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F134" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>491</v>
       </c>
       <c r="H134" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A134)</f>
         <v>6.6975625000000001</v>
       </c>
-      <c r="I134" s="21"/>
+      <c r="I134" s="18"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="B135" s="18" t="str">
+      <c r="A135" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="B135" s="16" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Zulm</v>
       </c>
-      <c r="C135" s="22" t="s">
+      <c r="C135" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D135" s="18" t="s">
+      <c r="D135" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E135" s="18" t="s">
+      <c r="E135" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F135" s="18" t="s">
+      <c r="F135" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G135" s="19" t="s">
-        <v>455</v>
+      <c r="G135" s="6" t="s">
+        <v>434</v>
       </c>
       <c r="H135" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A135)</f>
         <v>9.432716666666666</v>
       </c>
-      <c r="I135" s="21"/>
+      <c r="I135" s="18"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="B136" s="18" t="str">
+      <c r="A136" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="B136" s="16" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Jaan Se Pyara Juni</v>
       </c>
-      <c r="C136" s="22" t="s">
+      <c r="C136" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D136" s="18" t="s">
+      <c r="D136" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E136" s="18" t="s">
+      <c r="E136" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F136" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="G136" s="19" t="s">
-        <v>457</v>
+      <c r="F136" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>436</v>
       </c>
       <c r="H136" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A136)</f>
         <v>6.5716666666666672</v>
       </c>
-      <c r="I136" s="21" t="s">
-        <v>458</v>
+      <c r="I136" s="18" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="17" t="s">
-        <v>459</v>
-      </c>
-      <c r="B137" s="18" t="str">
+      <c r="A137" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="B137" s="16" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Radd</v>
       </c>
-      <c r="C137" s="22" t="s">
+      <c r="C137" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D137" s="18" t="s">
+      <c r="D137" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E137" s="18" t="s">
-        <v>460</v>
-      </c>
-      <c r="F137" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="G137" s="19" t="s">
-        <v>461</v>
+      <c r="E137" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F137" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>440</v>
       </c>
       <c r="H137" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A137)</f>
         <v>8.6025812500000001</v>
       </c>
-      <c r="I137" s="21"/>
+      <c r="I137" s="18"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="17" t="s">
-        <v>462</v>
-      </c>
-      <c r="B138" s="18" t="str">
+      <c r="A138" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="B138" s="16" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Shiddat</v>
       </c>
-      <c r="C138" s="22" t="s">
+      <c r="C138" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D138" s="18" t="s">
+      <c r="D138" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E138" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F138" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G138" s="19" t="s">
-        <v>463</v>
+      <c r="E138" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F138" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>442</v>
       </c>
       <c r="H138" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A138)</f>
         <v>6.6519374999999998</v>
       </c>
-      <c r="I138" s="21"/>
+      <c r="I138" s="18"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="17" t="s">
-        <v>464</v>
-      </c>
-      <c r="B139" s="18" t="str">
+      <c r="A139" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="B139" s="16" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Khudsar</v>
       </c>
-      <c r="C139" s="22" t="s">
+      <c r="C139" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D139" s="18" t="s">
+      <c r="D139" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E139" s="18" t="s">
+      <c r="E139" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F139" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="G139" s="19" t="s">
-        <v>465</v>
+      <c r="F139" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>444</v>
       </c>
       <c r="H139" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A139)</f>
         <v>6.9795593395252835</v>
       </c>
-      <c r="I139" s="21"/>
+      <c r="I139" s="18"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="17" t="s">
-        <v>466</v>
-      </c>
-      <c r="B140" s="18" t="str">
+      <c r="A140" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="B140" s="16" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Jaan-e-Jahan</v>
       </c>
-      <c r="C140" s="22" t="s">
+      <c r="C140" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D140" s="18" t="s">
+      <c r="D140" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E140" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="F140" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="G140" s="19" t="s">
-        <v>468</v>
+      <c r="E140" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="F140" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>447</v>
       </c>
       <c r="H140" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A140)</f>
         <v>8.926857142857143</v>
       </c>
-      <c r="I140" s="21"/>
+      <c r="I140" s="18"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="B141" s="18" t="str">
+      <c r="A141" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="B141" s="16" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Jaan Nisar</v>
       </c>
-      <c r="C141" s="22" t="s">
+      <c r="C141" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D141" s="18" t="s">
+      <c r="D141" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E141" s="18" t="s">
+      <c r="E141" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F141" s="18" t="s">
+      <c r="F141" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="G141" s="19" t="s">
-        <v>470</v>
+      <c r="G141" s="6" t="s">
+        <v>492</v>
       </c>
       <c r="H141" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A141)</f>
         <v>7.3754895833333327</v>
       </c>
-      <c r="I141" s="21"/>
+      <c r="I141" s="18"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="17" t="s">
-        <v>471</v>
-      </c>
-      <c r="B142" s="18" t="str">
+      <c r="A142" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="B142" s="16" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Zard Patton Ka Bunn</v>
       </c>
-      <c r="C142" s="22" t="s">
+      <c r="C142" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D142" s="18" t="s">
+      <c r="D142" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E142" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="F142" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="G142" s="19" t="s">
-        <v>472</v>
+      <c r="E142" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="F142" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>450</v>
       </c>
       <c r="H142" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A142)</f>
         <v>7.0956722222222224</v>
       </c>
-      <c r="I142" s="21"/>
+      <c r="I142" s="18"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="B143" s="18" t="str">
+      <c r="A143" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="B143" s="16" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Aik Chubhan Si</v>
       </c>
-      <c r="C143" s="22" t="s">
+      <c r="C143" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D143" s="18" t="s">
+      <c r="D143" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E143" s="18" t="s">
+      <c r="E143" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F143" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="G143" s="19" t="s">
-        <v>474</v>
+      <c r="F143" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>493</v>
       </c>
       <c r="H143" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A143)</f>
         <v>6.9418333333333324</v>
       </c>
-      <c r="I143" s="21"/>
+      <c r="I143" s="18"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="17" t="s">
-        <v>475</v>
-      </c>
-      <c r="B144" s="18" t="str">
+      <c r="A144" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="B144" s="16" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Noor Jahan</v>
       </c>
-      <c r="C144" s="22" t="s">
+      <c r="C144" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D144" s="18" t="s">
+      <c r="D144" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E144" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F144" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="G144" s="19" t="s">
-        <v>476</v>
+      <c r="E144" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F144" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>453</v>
       </c>
       <c r="H144" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A144)</f>
         <v>7.5165763888888879</v>
       </c>
-      <c r="I144" s="21"/>
+      <c r="I144" s="18"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="B145" s="18" t="str">
+      <c r="A145" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="B145" s="16" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Sultanat</v>
       </c>
-      <c r="C145" s="22" t="s">
+      <c r="C145" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D145" s="18" t="s">
+      <c r="D145" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E145" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="F145" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="G145" s="19" t="s">
-        <v>480</v>
+      <c r="E145" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="F145" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="G145" s="6" t="s">
+        <v>494</v>
       </c>
       <c r="H145" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A145)</f>
         <v>5.5313846153846153</v>
       </c>
-      <c r="I145" s="21" t="s">
-        <v>481</v>
+      <c r="I145" s="18" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="17" t="s">
-        <v>482</v>
-      </c>
-      <c r="B146" s="18" t="str">
+      <c r="A146" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="B146" s="16" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Jafaa</v>
       </c>
-      <c r="C146" s="22" t="s">
+      <c r="C146" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D146" s="18" t="s">
+      <c r="D146" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E146" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="F146" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G146" s="19" t="s">
-        <v>483</v>
+      <c r="E146" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F146" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>459</v>
       </c>
       <c r="H146" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A146)</f>
         <v>5.2181250000000006</v>
       </c>
-      <c r="I146" s="21" t="s">
-        <v>484</v>
+      <c r="I146" s="18" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="17" t="s">
-        <v>485</v>
-      </c>
-      <c r="B147" s="18" t="str">
+      <c r="A147" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="B147" s="16" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Kabhi Main Kabhi Tum</v>
       </c>
-      <c r="C147" s="22" t="s">
+      <c r="C147" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D147" s="18" t="s">
+      <c r="D147" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E147" s="18" t="s">
-        <v>486</v>
-      </c>
-      <c r="F147" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="G147" s="19" t="s">
-        <v>487</v>
+      <c r="E147" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="F147" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>463</v>
       </c>
       <c r="H147" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A147)</f>
         <v>9.8276250000000012</v>
       </c>
-      <c r="I147" s="21"/>
+      <c r="I147" s="18"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="17" t="s">
-        <v>488</v>
-      </c>
-      <c r="B148" s="18" t="str">
+      <c r="A148" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="B148" s="16" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Hum Donoo</v>
       </c>
-      <c r="C148" s="22" t="s">
+      <c r="C148" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D148" s="18" t="s">
+      <c r="D148" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E148" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="F148" s="18" t="s">
+      <c r="E148" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="F148" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G148" s="19" t="s">
-        <v>489</v>
+      <c r="G148" s="6" t="s">
+        <v>465</v>
       </c>
       <c r="H148" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A148)</f>
         <v>7.3000000000000007</v>
       </c>
-      <c r="I148" s="21" t="s">
-        <v>490</v>
+      <c r="I148" s="18" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="17" t="s">
-        <v>491</v>
-      </c>
-      <c r="B149" s="18" t="str">
+      <c r="A149" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="B149" s="16" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Tere Janay Kay Baad</v>
       </c>
-      <c r="C149" s="22" t="s">
+      <c r="C149" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D149" s="18" t="s">
+      <c r="D149" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E149" s="18" t="s">
+      <c r="E149" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F149" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="G149" s="19" t="s">
-        <v>493</v>
+      <c r="F149" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="G149" s="6" t="s">
+        <v>495</v>
       </c>
       <c r="H149" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A149)</f>
         <v>7.1747500000000004</v>
       </c>
-      <c r="I149" s="21"/>
+      <c r="I149" s="18"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="17" t="s">
-        <v>494</v>
-      </c>
-      <c r="B150" s="18" t="str">
+      <c r="A150" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="B150" s="16" t="str">
         <f>Table2[[#This Row],[Dramas]]</f>
         <v>Hasrat</v>
       </c>
-      <c r="C150" s="22" t="s">
+      <c r="C150" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D150" s="18" t="s">
+      <c r="D150" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E150" s="18" t="s">
-        <v>495</v>
-      </c>
-      <c r="F150" s="18" t="s">
+      <c r="E150" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="F150" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="G150" s="19" t="s">
-        <v>496</v>
+      <c r="G150" s="6" t="s">
+        <v>471</v>
       </c>
       <c r="H150" s="8">
         <f>AVERAGEIFS([1]!Table1[[#All],[Avg. Rtg]],[1]!Table1[[#All],[Dramas]],'tARGET DATA'!A150)</f>
         <v>6.9</v>
       </c>
-      <c r="I150" s="21"/>
+      <c r="I150" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
